--- a/Team-Data/2012-13/2-1-2012-13.xlsx
+++ b/Team-Data/2012-13/2-1-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -768,7 +835,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
@@ -780,25 +847,25 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>28</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>27</v>
       </c>
       <c r="AR2" t="n">
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -813,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.489</v>
       </c>
       <c r="H3" t="n">
         <v>49.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J3" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
@@ -878,28 +945,28 @@
         <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="O3" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="R3" t="n">
         <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="V3" t="n">
         <v>14.7</v>
@@ -908,34 +975,34 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.6</v>
+        <v>-0.9</v>
       </c>
       <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
         <v>16</v>
       </c>
-      <c r="AE3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
-      </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -944,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>7</v>
@@ -959,13 +1026,13 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>28</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>14</v>
@@ -992,10 +1059,10 @@
         <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>79</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M4" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="O4" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="R4" t="n">
         <v>12.4</v>
@@ -1081,10 +1148,10 @@
         <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
@@ -1093,13 +1160,13 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z4" t="n">
         <v>18.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>95.8</v>
@@ -1111,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -1120,7 +1187,7 @@
         <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,16 +1196,16 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1159,13 +1226,13 @@
         <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
         <v>20</v>
@@ -1177,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
         <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>18</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1338,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1347,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,7 +1423,7 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>0.609</v>
+        <v>0.622</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M6" t="n">
         <v>13.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.35</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P6" t="n">
         <v>22.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
         <v>12.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="U6" t="n">
         <v>22.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1460,28 +1527,28 @@
         <v>5.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>13</v>
@@ -1502,16 +1569,16 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1520,28 +1587,28 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>26</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>0.277</v>
+        <v>0.283</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>84.59999999999999</v>
+        <v>84.5</v>
       </c>
       <c r="K7" t="n">
         <v>0.423</v>
@@ -1606,16 +1673,16 @@
         <v>20.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P7" t="n">
         <v>22.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R7" t="n">
         <v>12.8</v>
@@ -1633,7 +1700,7 @@
         <v>14.7</v>
       </c>
       <c r="W7" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>3.7</v>
@@ -1642,16 +1709,16 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AA7" t="n">
         <v>20.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-5.4</v>
+        <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1684,22 +1751,22 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP7" t="n">
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>6</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
         <v>21</v>
@@ -1711,7 +1778,7 @@
         <v>13</v>
       </c>
       <c r="AW7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.426</v>
+        <v>0.413</v>
       </c>
       <c r="H8" t="n">
         <v>49.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J8" t="n">
-        <v>84.3</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.453</v>
@@ -1785,55 +1852,55 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
         <v>19.3</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.7</v>
+        <v>100.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1851,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
         <v>4</v>
@@ -1860,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>15</v>
@@ -1881,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
@@ -1890,28 +1957,28 @@
         <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -1940,34 +2007,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.625</v>
+        <v>0.617</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J9" t="n">
         <v>85</v>
       </c>
       <c r="K9" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L9" t="n">
         <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N9" t="n">
         <v>0.336</v>
@@ -1979,31 +2046,31 @@
         <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
         <v>20.6</v>
@@ -2012,22 +2079,22 @@
         <v>22.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH9" t="n">
         <v>19</v>
@@ -2045,7 +2112,7 @@
         <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
@@ -2066,16 +2133,16 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="n">
         <v>3</v>
       </c>
-      <c r="AU9" t="n">
-        <v>2</v>
-      </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>29</v>
       </c>
       <c r="G10" t="n">
-        <v>0.383</v>
+        <v>0.37</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="J10" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K10" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
@@ -2152,37 +2219,37 @@
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O10" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="P10" t="n">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.695</v>
+        <v>0.702</v>
       </c>
       <c r="R10" t="n">
         <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
         <v>5.5</v>
@@ -2191,13 +2258,13 @@
         <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>95</v>
+        <v>94.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2212,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2233,28 +2300,28 @@
         <v>8</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
@@ -2266,16 +2333,16 @@
         <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2436,7 +2503,7 @@
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2454,10 +2521,10 @@
         <v>23</v>
       </c>
       <c r="BB11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2634,22 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,10 +2670,10 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
@@ -2615,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2627,13 +2694,13 @@
         <v>27</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>2</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.596</v>
+        <v>0.587</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L13" t="n">
         <v>6.7</v>
@@ -2698,7 +2765,7 @@
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O13" t="n">
         <v>16</v>
@@ -2707,49 +2774,49 @@
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S13" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T13" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="U13" t="n">
         <v>19.9</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA13" t="n">
         <v>20.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>92</v>
+        <v>91.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>10</v>
@@ -2758,13 +2825,13 @@
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2782,7 +2849,7 @@
         <v>22</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
         <v>21</v>
@@ -2791,16 +2858,16 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2809,13 +2876,13 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.708</v>
+        <v>0.723</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.471</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M14" t="n">
         <v>20</v>
       </c>
       <c r="N14" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
         <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.706</v>
+        <v>0.707</v>
       </c>
       <c r="R14" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
         <v>30.3</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>14.3</v>
@@ -2916,19 +2983,19 @@
         <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2943,25 +3010,25 @@
         <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>12</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2973,10 +3040,10 @@
         <v>14</v>
       </c>
       <c r="AS14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2994,13 +3061,13 @@
         <v>7</v>
       </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
       </c>
       <c r="BB14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.447</v>
+        <v>0.435</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,16 +3117,16 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.356</v>
@@ -3068,28 +3135,28 @@
         <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>45.3</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X15" t="n">
         <v>5.5</v>
@@ -3098,16 +3165,16 @@
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3116,7 +3183,7 @@
         <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
         <v>18</v>
@@ -3131,16 +3198,16 @@
         <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3158,10 +3225,10 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3182,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
         <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.652</v>
+        <v>0.644</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,7 +3299,7 @@
         <v>36.2</v>
       </c>
       <c r="J16" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.435</v>
@@ -3241,10 +3308,10 @@
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O16" t="n">
         <v>16.2</v>
@@ -3253,19 +3320,19 @@
         <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R16" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
@@ -3277,22 +3344,22 @@
         <v>5.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
         <v>19.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3346,22 +3413,22 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
         <v>28</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>0.674</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48.7</v>
       </c>
       <c r="I17" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J17" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.489</v>
       </c>
       <c r="L17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O17" t="n">
         <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q17" t="n">
         <v>0.756</v>
@@ -3441,16 +3508,16 @@
         <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>30.6</v>
+        <v>30.9</v>
       </c>
       <c r="T17" t="n">
-        <v>39.1</v>
+        <v>39.4</v>
       </c>
       <c r="U17" t="n">
         <v>22.4</v>
       </c>
       <c r="V17" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W17" t="n">
         <v>8.300000000000001</v>
@@ -3462,22 +3529,22 @@
         <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
         <v>29</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3492,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
@@ -3507,19 +3574,19 @@
         <v>2</v>
       </c>
       <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
         <v>12</v>
       </c>
-      <c r="AP17" t="n">
-        <v>11</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3540,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>13</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -3578,67 +3645,67 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>0.533</v>
+        <v>0.545</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>86.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R18" t="n">
         <v>13.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T18" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U18" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W18" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>4.3</v>
@@ -3647,16 +3714,16 @@
         <v>19.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3665,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>25</v>
@@ -3680,22 +3747,22 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR18" t="n">
         <v>4</v>
@@ -3704,16 +3771,16 @@
         <v>16</v>
       </c>
       <c r="AT18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW18" t="n">
         <v>6</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>7</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3722,13 +3789,13 @@
         <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
         <v>15</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
-        <v>81.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>18.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3</v>
+        <v>0.295</v>
       </c>
       <c r="O19" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S19" t="n">
         <v>30.7</v>
       </c>
       <c r="T19" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U19" t="n">
         <v>21.8</v>
@@ -3829,19 +3896,19 @@
         <v>18</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>18</v>
@@ -3856,7 +3923,7 @@
         <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3865,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3883,22 +3950,22 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY19" t="n">
         <v>23</v>
@@ -3910,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
         <v>15</v>
       </c>
       <c r="F20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.319</v>
+        <v>0.326</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,46 +4027,46 @@
         <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O20" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="P20" t="n">
         <v>19.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
         <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
         <v>5.3</v>
@@ -4008,16 +4075,16 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.1</v>
+        <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4032,19 +4099,19 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL20" t="n">
         <v>13</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>14</v>
       </c>
       <c r="AM20" t="n">
         <v>19</v>
@@ -4053,13 +4120,13 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4074,13 +4141,13 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0.659</v>
+        <v>0.651</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J21" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4151,16 +4218,16 @@
         <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="N21" t="n">
         <v>0.383</v>
       </c>
       <c r="O21" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="P21" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q21" t="n">
         <v>0.752</v>
@@ -4169,19 +4236,19 @@
         <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="W21" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X21" t="n">
         <v>3.9</v>
@@ -4190,22 +4257,22 @@
         <v>3.8</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD21" t="n">
         <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4220,10 +4287,10 @@
         <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,28 +4305,28 @@
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>29</v>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,10 +4466,10 @@
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
@@ -4429,7 +4496,7 @@
         <v>24</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
         <v>11</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" t="n">
-        <v>0.304</v>
+        <v>0.311</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
@@ -4506,67 +4573,67 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O23" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="P23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.789</v>
+        <v>0.787</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S23" t="n">
         <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>4.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
@@ -4584,7 +4651,7 @@
         <v>8</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>11</v>
@@ -4596,7 +4663,7 @@
         <v>13</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4617,10 +4684,10 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
@@ -4632,13 +4699,13 @@
         <v>14</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.435</v>
+        <v>0.422</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,46 +4755,46 @@
         <v>37.4</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="P24" t="n">
         <v>16.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R24" t="n">
         <v>10.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T24" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U24" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4739,22 +4806,22 @@
         <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.2</v>
+        <v>-3.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -4763,13 +4830,13 @@
         <v>20</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,28 +4860,28 @@
         <v>23</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>15</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
         <v>9</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,7 +4937,7 @@
         <v>37.4</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
         <v>0.445</v>
@@ -4882,13 +4949,13 @@
         <v>17.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O25" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="P25" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="Q25" t="n">
         <v>0.751</v>
@@ -4897,25 +4964,25 @@
         <v>11.1</v>
       </c>
       <c r="S25" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
         <v>14.2</v>
       </c>
       <c r="W25" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z25" t="n">
         <v>20.5</v>
@@ -4924,34 +4991,34 @@
         <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD25" t="n">
         <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
         <v>24</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>25</v>
@@ -4963,10 +5030,10 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>19</v>
@@ -4978,7 +5045,7 @@
         <v>27</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>17</v>
@@ -4990,10 +5057,10 @@
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -5034,43 +5101,43 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="n">
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.511</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N26" t="n">
         <v>0.337</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P26" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q26" t="n">
         <v>0.776</v>
@@ -5079,19 +5146,19 @@
         <v>11.7</v>
       </c>
       <c r="S26" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
         <v>42</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V26" t="n">
         <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.8</v>
@@ -5100,19 +5167,19 @@
         <v>4</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5127,7 +5194,7 @@
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
         <v>14</v>
@@ -5145,7 +5212,7 @@
         <v>26</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>19</v>
@@ -5157,10 +5224,10 @@
         <v>13</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU26" t="n">
         <v>22</v>
@@ -5169,25 +5236,25 @@
         <v>19</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>21</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O27" t="n">
         <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5273,37 +5340,37 @@
         <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
@@ -5312,37 +5379,37 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO27" t="n">
         <v>15</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>14</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
       </c>
       <c r="AQ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU27" t="n">
         <v>28</v>
@@ -5351,19 +5418,19 @@
         <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB27" t="n">
         <v>16</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>23</v>
@@ -5536,7 +5603,7 @@
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
         <v>30</v>
       </c>
       <c r="G29" t="n">
-        <v>0.362</v>
+        <v>0.348</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
@@ -5604,34 +5671,34 @@
         <v>0.444</v>
       </c>
       <c r="L29" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P29" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V29" t="n">
         <v>12.9</v>
@@ -5640,7 +5707,7 @@
         <v>7.2</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
@@ -5649,55 +5716,55 @@
         <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB29" t="n">
         <v>97.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
         <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5709,31 +5776,31 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -5762,70 +5829,70 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" t="n">
         <v>21</v>
       </c>
       <c r="G30" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J30" t="n">
         <v>81.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M30" t="n">
         <v>17</v>
       </c>
       <c r="N30" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R30" t="n">
         <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U30" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
         <v>6.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z30" t="n">
         <v>21.6</v>
@@ -5834,34 +5901,34 @@
         <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5885,16 +5952,16 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>8</v>
@@ -5903,10 +5970,10 @@
         <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>0.244</v>
+        <v>0.25</v>
       </c>
       <c r="H31" t="n">
         <v>48.8</v>
@@ -5974,55 +6041,55 @@
         <v>19.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O31" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="P31" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S31" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T31" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V31" t="n">
         <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="n">
-        <v>90.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6049,40 +6116,40 @@
         <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
         <v>15</v>
@@ -6091,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-1-2012-13</t>
+          <t>2013-02-01</t>
         </is>
       </c>
     </row>
